--- a/BOM-GD32F207RG.xlsx
+++ b/BOM-GD32F207RG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -142,34 +142,16 @@
     <t xml:space="preserve">C49312</t>
   </si>
   <si>
-    <t xml:space="preserve">LED1</t>
+    <t xml:space="preserve">LED1, LED2, LED3, LED4</t>
   </si>
   <si>
     <t xml:space="preserve">CHIP-LED0603</t>
   </si>
   <si>
-    <t xml:space="preserve">PWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C72043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2286</t>
   </si>
   <si>
     <t xml:space="preserve">Q1</t>
@@ -421,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,6 +424,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,23 +437,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -582,10 +551,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,7 +1775,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>40</v>
@@ -1817,7 +1786,7 @@
       <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1829,1083 +1798,64 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
-      <c r="CM13" s="3"/>
-      <c r="CN13" s="3"/>
-      <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3"/>
-      <c r="CT13" s="3"/>
-      <c r="CU13" s="3"/>
-      <c r="CV13" s="3"/>
-      <c r="CW13" s="3"/>
-      <c r="CX13" s="3"/>
-      <c r="CY13" s="3"/>
-      <c r="CZ13" s="3"/>
-      <c r="DA13" s="3"/>
-      <c r="DB13" s="3"/>
-      <c r="DC13" s="3"/>
-      <c r="DD13" s="3"/>
-      <c r="DE13" s="3"/>
-      <c r="DF13" s="3"/>
-      <c r="DG13" s="3"/>
-      <c r="DH13" s="3"/>
-      <c r="DI13" s="3"/>
-      <c r="DJ13" s="3"/>
-      <c r="DK13" s="3"/>
-      <c r="DL13" s="3"/>
-      <c r="DM13" s="3"/>
-      <c r="DN13" s="3"/>
-      <c r="DO13" s="3"/>
-      <c r="DP13" s="3"/>
-      <c r="DQ13" s="3"/>
-      <c r="DR13" s="3"/>
-      <c r="DS13" s="3"/>
-      <c r="DT13" s="3"/>
-      <c r="DU13" s="3"/>
-      <c r="DV13" s="3"/>
-      <c r="DW13" s="3"/>
-      <c r="DX13" s="3"/>
-      <c r="DY13" s="3"/>
-      <c r="DZ13" s="3"/>
-      <c r="EA13" s="3"/>
-      <c r="EB13" s="3"/>
-      <c r="EC13" s="3"/>
-      <c r="ED13" s="3"/>
-      <c r="EE13" s="3"/>
-      <c r="EF13" s="3"/>
-      <c r="EG13" s="3"/>
-      <c r="EH13" s="3"/>
-      <c r="EI13" s="3"/>
-      <c r="EJ13" s="3"/>
-      <c r="EK13" s="3"/>
-      <c r="EL13" s="3"/>
-      <c r="EM13" s="3"/>
-      <c r="EN13" s="3"/>
-      <c r="EO13" s="3"/>
-      <c r="EP13" s="3"/>
-      <c r="EQ13" s="3"/>
-      <c r="ER13" s="3"/>
-      <c r="ES13" s="3"/>
-      <c r="ET13" s="3"/>
-      <c r="EU13" s="3"/>
-      <c r="EV13" s="3"/>
-      <c r="EW13" s="3"/>
-      <c r="EX13" s="3"/>
-      <c r="EY13" s="3"/>
-      <c r="EZ13" s="3"/>
-      <c r="FA13" s="3"/>
-      <c r="FB13" s="3"/>
-      <c r="FC13" s="3"/>
-      <c r="FD13" s="3"/>
-      <c r="FE13" s="3"/>
-      <c r="FF13" s="3"/>
-      <c r="FG13" s="3"/>
-      <c r="FH13" s="3"/>
-      <c r="FI13" s="3"/>
-      <c r="FJ13" s="3"/>
-      <c r="FK13" s="3"/>
-      <c r="FL13" s="3"/>
-      <c r="FM13" s="3"/>
-      <c r="FN13" s="3"/>
-      <c r="FO13" s="3"/>
-      <c r="FP13" s="3"/>
-      <c r="FQ13" s="3"/>
-      <c r="FR13" s="3"/>
-      <c r="FS13" s="3"/>
-      <c r="FT13" s="3"/>
-      <c r="FU13" s="3"/>
-      <c r="FV13" s="3"/>
-      <c r="FW13" s="3"/>
-      <c r="FX13" s="3"/>
-      <c r="FY13" s="3"/>
-      <c r="FZ13" s="3"/>
-      <c r="GA13" s="3"/>
-      <c r="GB13" s="3"/>
-      <c r="GC13" s="3"/>
-      <c r="GD13" s="3"/>
-      <c r="GE13" s="3"/>
-      <c r="GF13" s="3"/>
-      <c r="GG13" s="3"/>
-      <c r="GH13" s="3"/>
-      <c r="GI13" s="3"/>
-      <c r="GJ13" s="3"/>
-      <c r="GK13" s="3"/>
-      <c r="GL13" s="3"/>
-      <c r="GM13" s="3"/>
-      <c r="GN13" s="3"/>
-      <c r="GO13" s="3"/>
-      <c r="GP13" s="3"/>
-      <c r="GQ13" s="3"/>
-      <c r="GR13" s="3"/>
-      <c r="GS13" s="3"/>
-      <c r="GT13" s="3"/>
-      <c r="GU13" s="3"/>
-      <c r="GV13" s="3"/>
-      <c r="GW13" s="3"/>
-      <c r="GX13" s="3"/>
-      <c r="GY13" s="3"/>
-      <c r="GZ13" s="3"/>
-      <c r="HA13" s="3"/>
-      <c r="HB13" s="3"/>
-      <c r="HC13" s="3"/>
-      <c r="HD13" s="3"/>
-      <c r="HE13" s="3"/>
-      <c r="HF13" s="3"/>
-      <c r="HG13" s="3"/>
-      <c r="HH13" s="3"/>
-      <c r="HI13" s="3"/>
-      <c r="HJ13" s="3"/>
-      <c r="HK13" s="3"/>
-      <c r="HL13" s="3"/>
-      <c r="HM13" s="3"/>
-      <c r="HN13" s="3"/>
-      <c r="HO13" s="3"/>
-      <c r="HP13" s="3"/>
-      <c r="HQ13" s="3"/>
-      <c r="HR13" s="3"/>
-      <c r="HS13" s="3"/>
-      <c r="HT13" s="3"/>
-      <c r="HU13" s="3"/>
-      <c r="HV13" s="3"/>
-      <c r="HW13" s="3"/>
-      <c r="HX13" s="3"/>
-      <c r="HY13" s="3"/>
-      <c r="HZ13" s="3"/>
-      <c r="IA13" s="3"/>
-      <c r="IB13" s="3"/>
-      <c r="IC13" s="3"/>
-      <c r="ID13" s="3"/>
-      <c r="IE13" s="3"/>
-      <c r="IF13" s="3"/>
-      <c r="IG13" s="3"/>
-      <c r="IH13" s="3"/>
-      <c r="II13" s="3"/>
-      <c r="IJ13" s="3"/>
-      <c r="IK13" s="3"/>
-      <c r="IL13" s="3"/>
-      <c r="IM13" s="3"/>
-      <c r="IN13" s="3"/>
-      <c r="IO13" s="3"/>
-      <c r="IP13" s="3"/>
-      <c r="IQ13" s="3"/>
-      <c r="IR13" s="3"/>
-      <c r="IS13" s="3"/>
-      <c r="IT13" s="3"/>
-      <c r="IU13" s="3"/>
-      <c r="IV13" s="3"/>
-      <c r="IW13" s="3"/>
-      <c r="IX13" s="3"/>
-      <c r="IY13" s="3"/>
-      <c r="IZ13" s="3"/>
-      <c r="JA13" s="3"/>
-      <c r="JB13" s="3"/>
-      <c r="JC13" s="3"/>
-      <c r="JD13" s="3"/>
-      <c r="JE13" s="3"/>
-      <c r="JF13" s="3"/>
-      <c r="JG13" s="3"/>
-      <c r="JH13" s="3"/>
-      <c r="JI13" s="3"/>
-      <c r="JJ13" s="3"/>
-      <c r="JK13" s="3"/>
-      <c r="JL13" s="3"/>
-      <c r="JM13" s="3"/>
-      <c r="JN13" s="3"/>
-      <c r="JO13" s="3"/>
-      <c r="JP13" s="3"/>
-      <c r="JQ13" s="3"/>
-      <c r="JR13" s="3"/>
-      <c r="JS13" s="3"/>
-      <c r="JT13" s="3"/>
-      <c r="JU13" s="3"/>
-      <c r="JV13" s="3"/>
-      <c r="JW13" s="3"/>
-      <c r="JX13" s="3"/>
-      <c r="JY13" s="3"/>
-      <c r="JZ13" s="3"/>
-      <c r="KA13" s="3"/>
-      <c r="KB13" s="3"/>
-      <c r="KC13" s="3"/>
-      <c r="KD13" s="3"/>
-      <c r="KE13" s="3"/>
-      <c r="KF13" s="3"/>
-      <c r="KG13" s="3"/>
-      <c r="KH13" s="3"/>
-      <c r="KI13" s="3"/>
-      <c r="KJ13" s="3"/>
-      <c r="KK13" s="3"/>
-      <c r="KL13" s="3"/>
-      <c r="KM13" s="3"/>
-      <c r="KN13" s="3"/>
-      <c r="KO13" s="3"/>
-      <c r="KP13" s="3"/>
-      <c r="KQ13" s="3"/>
-      <c r="KR13" s="3"/>
-      <c r="KS13" s="3"/>
-      <c r="KT13" s="3"/>
-      <c r="KU13" s="3"/>
-      <c r="KV13" s="3"/>
-      <c r="KW13" s="3"/>
-      <c r="KX13" s="3"/>
-      <c r="KY13" s="3"/>
-      <c r="KZ13" s="3"/>
-      <c r="LA13" s="3"/>
-      <c r="LB13" s="3"/>
-      <c r="LC13" s="3"/>
-      <c r="LD13" s="3"/>
-      <c r="LE13" s="3"/>
-      <c r="LF13" s="3"/>
-      <c r="LG13" s="3"/>
-      <c r="LH13" s="3"/>
-      <c r="LI13" s="3"/>
-      <c r="LJ13" s="3"/>
-      <c r="LK13" s="3"/>
-      <c r="LL13" s="3"/>
-      <c r="LM13" s="3"/>
-      <c r="LN13" s="3"/>
-      <c r="LO13" s="3"/>
-      <c r="LP13" s="3"/>
-      <c r="LQ13" s="3"/>
-      <c r="LR13" s="3"/>
-      <c r="LS13" s="3"/>
-      <c r="LT13" s="3"/>
-      <c r="LU13" s="3"/>
-      <c r="LV13" s="3"/>
-      <c r="LW13" s="3"/>
-      <c r="LX13" s="3"/>
-      <c r="LY13" s="3"/>
-      <c r="LZ13" s="3"/>
-      <c r="MA13" s="3"/>
-      <c r="MB13" s="3"/>
-      <c r="MC13" s="3"/>
-      <c r="MD13" s="3"/>
-      <c r="ME13" s="3"/>
-      <c r="MF13" s="3"/>
-      <c r="MG13" s="3"/>
-      <c r="MH13" s="3"/>
-      <c r="MI13" s="3"/>
-      <c r="MJ13" s="3"/>
-      <c r="MK13" s="3"/>
-      <c r="ML13" s="3"/>
-      <c r="MM13" s="3"/>
-      <c r="MN13" s="3"/>
-      <c r="MO13" s="3"/>
-      <c r="MP13" s="3"/>
-      <c r="MQ13" s="3"/>
-      <c r="MR13" s="3"/>
-      <c r="MS13" s="3"/>
-      <c r="MT13" s="3"/>
-      <c r="MU13" s="3"/>
-      <c r="MV13" s="3"/>
-      <c r="MW13" s="3"/>
-      <c r="MX13" s="3"/>
-      <c r="MY13" s="3"/>
-      <c r="MZ13" s="3"/>
-      <c r="NA13" s="3"/>
-      <c r="NB13" s="3"/>
-      <c r="NC13" s="3"/>
-      <c r="ND13" s="3"/>
-      <c r="NE13" s="3"/>
-      <c r="NF13" s="3"/>
-      <c r="NG13" s="3"/>
-      <c r="NH13" s="3"/>
-      <c r="NI13" s="3"/>
-      <c r="NJ13" s="3"/>
-      <c r="NK13" s="3"/>
-      <c r="NL13" s="3"/>
-      <c r="NM13" s="3"/>
-      <c r="NN13" s="3"/>
-      <c r="NO13" s="3"/>
-      <c r="NP13" s="3"/>
-      <c r="NQ13" s="3"/>
-      <c r="NR13" s="3"/>
-      <c r="NS13" s="3"/>
-      <c r="NT13" s="3"/>
-      <c r="NU13" s="3"/>
-      <c r="NV13" s="3"/>
-      <c r="NW13" s="3"/>
-      <c r="NX13" s="3"/>
-      <c r="NY13" s="3"/>
-      <c r="NZ13" s="3"/>
-      <c r="OA13" s="3"/>
-      <c r="OB13" s="3"/>
-      <c r="OC13" s="3"/>
-      <c r="OD13" s="3"/>
-      <c r="OE13" s="3"/>
-      <c r="OF13" s="3"/>
-      <c r="OG13" s="3"/>
-      <c r="OH13" s="3"/>
-      <c r="OI13" s="3"/>
-      <c r="OJ13" s="3"/>
-      <c r="OK13" s="3"/>
-      <c r="OL13" s="3"/>
-      <c r="OM13" s="3"/>
-      <c r="ON13" s="3"/>
-      <c r="OO13" s="3"/>
-      <c r="OP13" s="3"/>
-      <c r="OQ13" s="3"/>
-      <c r="OR13" s="3"/>
-      <c r="OS13" s="3"/>
-      <c r="OT13" s="3"/>
-      <c r="OU13" s="3"/>
-      <c r="OV13" s="3"/>
-      <c r="OW13" s="3"/>
-      <c r="OX13" s="3"/>
-      <c r="OY13" s="3"/>
-      <c r="OZ13" s="3"/>
-      <c r="PA13" s="3"/>
-      <c r="PB13" s="3"/>
-      <c r="PC13" s="3"/>
-      <c r="PD13" s="3"/>
-      <c r="PE13" s="3"/>
-      <c r="PF13" s="3"/>
-      <c r="PG13" s="3"/>
-      <c r="PH13" s="3"/>
-      <c r="PI13" s="3"/>
-      <c r="PJ13" s="3"/>
-      <c r="PK13" s="3"/>
-      <c r="PL13" s="3"/>
-      <c r="PM13" s="3"/>
-      <c r="PN13" s="3"/>
-      <c r="PO13" s="3"/>
-      <c r="PP13" s="3"/>
-      <c r="PQ13" s="3"/>
-      <c r="PR13" s="3"/>
-      <c r="PS13" s="3"/>
-      <c r="PT13" s="3"/>
-      <c r="PU13" s="3"/>
-      <c r="PV13" s="3"/>
-      <c r="PW13" s="3"/>
-      <c r="PX13" s="3"/>
-      <c r="PY13" s="3"/>
-      <c r="PZ13" s="3"/>
-      <c r="QA13" s="3"/>
-      <c r="QB13" s="3"/>
-      <c r="QC13" s="3"/>
-      <c r="QD13" s="3"/>
-      <c r="QE13" s="3"/>
-      <c r="QF13" s="3"/>
-      <c r="QG13" s="3"/>
-      <c r="QH13" s="3"/>
-      <c r="QI13" s="3"/>
-      <c r="QJ13" s="3"/>
-      <c r="QK13" s="3"/>
-      <c r="QL13" s="3"/>
-      <c r="QM13" s="3"/>
-      <c r="QN13" s="3"/>
-      <c r="QO13" s="3"/>
-      <c r="QP13" s="3"/>
-      <c r="QQ13" s="3"/>
-      <c r="QR13" s="3"/>
-      <c r="QS13" s="3"/>
-      <c r="QT13" s="3"/>
-      <c r="QU13" s="3"/>
-      <c r="QV13" s="3"/>
-      <c r="QW13" s="3"/>
-      <c r="QX13" s="3"/>
-      <c r="QY13" s="3"/>
-      <c r="QZ13" s="3"/>
-      <c r="RA13" s="3"/>
-      <c r="RB13" s="3"/>
-      <c r="RC13" s="3"/>
-      <c r="RD13" s="3"/>
-      <c r="RE13" s="3"/>
-      <c r="RF13" s="3"/>
-      <c r="RG13" s="3"/>
-      <c r="RH13" s="3"/>
-      <c r="RI13" s="3"/>
-      <c r="RJ13" s="3"/>
-      <c r="RK13" s="3"/>
-      <c r="RL13" s="3"/>
-      <c r="RM13" s="3"/>
-      <c r="RN13" s="3"/>
-      <c r="RO13" s="3"/>
-      <c r="RP13" s="3"/>
-      <c r="RQ13" s="3"/>
-      <c r="RR13" s="3"/>
-      <c r="RS13" s="3"/>
-      <c r="RT13" s="3"/>
-      <c r="RU13" s="3"/>
-      <c r="RV13" s="3"/>
-      <c r="RW13" s="3"/>
-      <c r="RX13" s="3"/>
-      <c r="RY13" s="3"/>
-      <c r="RZ13" s="3"/>
-      <c r="SA13" s="3"/>
-      <c r="SB13" s="3"/>
-      <c r="SC13" s="3"/>
-      <c r="SD13" s="3"/>
-      <c r="SE13" s="3"/>
-      <c r="SF13" s="3"/>
-      <c r="SG13" s="3"/>
-      <c r="SH13" s="3"/>
-      <c r="SI13" s="3"/>
-      <c r="SJ13" s="3"/>
-      <c r="SK13" s="3"/>
-      <c r="SL13" s="3"/>
-      <c r="SM13" s="3"/>
-      <c r="SN13" s="3"/>
-      <c r="SO13" s="3"/>
-      <c r="SP13" s="3"/>
-      <c r="SQ13" s="3"/>
-      <c r="SR13" s="3"/>
-      <c r="SS13" s="3"/>
-      <c r="ST13" s="3"/>
-      <c r="SU13" s="3"/>
-      <c r="SV13" s="3"/>
-      <c r="SW13" s="3"/>
-      <c r="SX13" s="3"/>
-      <c r="SY13" s="3"/>
-      <c r="SZ13" s="3"/>
-      <c r="TA13" s="3"/>
-      <c r="TB13" s="3"/>
-      <c r="TC13" s="3"/>
-      <c r="TD13" s="3"/>
-      <c r="TE13" s="3"/>
-      <c r="TF13" s="3"/>
-      <c r="TG13" s="3"/>
-      <c r="TH13" s="3"/>
-      <c r="TI13" s="3"/>
-      <c r="TJ13" s="3"/>
-      <c r="TK13" s="3"/>
-      <c r="TL13" s="3"/>
-      <c r="TM13" s="3"/>
-      <c r="TN13" s="3"/>
-      <c r="TO13" s="3"/>
-      <c r="TP13" s="3"/>
-      <c r="TQ13" s="3"/>
-      <c r="TR13" s="3"/>
-      <c r="TS13" s="3"/>
-      <c r="TT13" s="3"/>
-      <c r="TU13" s="3"/>
-      <c r="TV13" s="3"/>
-      <c r="TW13" s="3"/>
-      <c r="TX13" s="3"/>
-      <c r="TY13" s="3"/>
-      <c r="TZ13" s="3"/>
-      <c r="UA13" s="3"/>
-      <c r="UB13" s="3"/>
-      <c r="UC13" s="3"/>
-      <c r="UD13" s="3"/>
-      <c r="UE13" s="3"/>
-      <c r="UF13" s="3"/>
-      <c r="UG13" s="3"/>
-      <c r="UH13" s="3"/>
-      <c r="UI13" s="3"/>
-      <c r="UJ13" s="3"/>
-      <c r="UK13" s="3"/>
-      <c r="UL13" s="3"/>
-      <c r="UM13" s="3"/>
-      <c r="UN13" s="3"/>
-      <c r="UO13" s="3"/>
-      <c r="UP13" s="3"/>
-      <c r="UQ13" s="3"/>
-      <c r="UR13" s="3"/>
-      <c r="US13" s="3"/>
-      <c r="UT13" s="3"/>
-      <c r="UU13" s="3"/>
-      <c r="UV13" s="3"/>
-      <c r="UW13" s="3"/>
-      <c r="UX13" s="3"/>
-      <c r="UY13" s="3"/>
-      <c r="UZ13" s="3"/>
-      <c r="VA13" s="3"/>
-      <c r="VB13" s="3"/>
-      <c r="VC13" s="3"/>
-      <c r="VD13" s="3"/>
-      <c r="VE13" s="3"/>
-      <c r="VF13" s="3"/>
-      <c r="VG13" s="3"/>
-      <c r="VH13" s="3"/>
-      <c r="VI13" s="3"/>
-      <c r="VJ13" s="3"/>
-      <c r="VK13" s="3"/>
-      <c r="VL13" s="3"/>
-      <c r="VM13" s="3"/>
-      <c r="VN13" s="3"/>
-      <c r="VO13" s="3"/>
-      <c r="VP13" s="3"/>
-      <c r="VQ13" s="3"/>
-      <c r="VR13" s="3"/>
-      <c r="VS13" s="3"/>
-      <c r="VT13" s="3"/>
-      <c r="VU13" s="3"/>
-      <c r="VV13" s="3"/>
-      <c r="VW13" s="3"/>
-      <c r="VX13" s="3"/>
-      <c r="VY13" s="3"/>
-      <c r="VZ13" s="3"/>
-      <c r="WA13" s="3"/>
-      <c r="WB13" s="3"/>
-      <c r="WC13" s="3"/>
-      <c r="WD13" s="3"/>
-      <c r="WE13" s="3"/>
-      <c r="WF13" s="3"/>
-      <c r="WG13" s="3"/>
-      <c r="WH13" s="3"/>
-      <c r="WI13" s="3"/>
-      <c r="WJ13" s="3"/>
-      <c r="WK13" s="3"/>
-      <c r="WL13" s="3"/>
-      <c r="WM13" s="3"/>
-      <c r="WN13" s="3"/>
-      <c r="WO13" s="3"/>
-      <c r="WP13" s="3"/>
-      <c r="WQ13" s="3"/>
-      <c r="WR13" s="3"/>
-      <c r="WS13" s="3"/>
-      <c r="WT13" s="3"/>
-      <c r="WU13" s="3"/>
-      <c r="WV13" s="3"/>
-      <c r="WW13" s="3"/>
-      <c r="WX13" s="3"/>
-      <c r="WY13" s="3"/>
-      <c r="WZ13" s="3"/>
-      <c r="XA13" s="3"/>
-      <c r="XB13" s="3"/>
-      <c r="XC13" s="3"/>
-      <c r="XD13" s="3"/>
-      <c r="XE13" s="3"/>
-      <c r="XF13" s="3"/>
-      <c r="XG13" s="3"/>
-      <c r="XH13" s="3"/>
-      <c r="XI13" s="3"/>
-      <c r="XJ13" s="3"/>
-      <c r="XK13" s="3"/>
-      <c r="XL13" s="3"/>
-      <c r="XM13" s="3"/>
-      <c r="XN13" s="3"/>
-      <c r="XO13" s="3"/>
-      <c r="XP13" s="3"/>
-      <c r="XQ13" s="3"/>
-      <c r="XR13" s="3"/>
-      <c r="XS13" s="3"/>
-      <c r="XT13" s="3"/>
-      <c r="XU13" s="3"/>
-      <c r="XV13" s="3"/>
-      <c r="XW13" s="3"/>
-      <c r="XX13" s="3"/>
-      <c r="XY13" s="3"/>
-      <c r="XZ13" s="3"/>
-      <c r="YA13" s="3"/>
-      <c r="YB13" s="3"/>
-      <c r="YC13" s="3"/>
-      <c r="YD13" s="3"/>
-      <c r="YE13" s="3"/>
-      <c r="YF13" s="3"/>
-      <c r="YG13" s="3"/>
-      <c r="YH13" s="3"/>
-      <c r="YI13" s="3"/>
-      <c r="YJ13" s="3"/>
-      <c r="YK13" s="3"/>
-      <c r="YL13" s="3"/>
-      <c r="YM13" s="3"/>
-      <c r="YN13" s="3"/>
-      <c r="YO13" s="3"/>
-      <c r="YP13" s="3"/>
-      <c r="YQ13" s="3"/>
-      <c r="YR13" s="3"/>
-      <c r="YS13" s="3"/>
-      <c r="YT13" s="3"/>
-      <c r="YU13" s="3"/>
-      <c r="YV13" s="3"/>
-      <c r="YW13" s="3"/>
-      <c r="YX13" s="3"/>
-      <c r="YY13" s="3"/>
-      <c r="YZ13" s="3"/>
-      <c r="ZA13" s="3"/>
-      <c r="ZB13" s="3"/>
-      <c r="ZC13" s="3"/>
-      <c r="ZD13" s="3"/>
-      <c r="ZE13" s="3"/>
-      <c r="ZF13" s="3"/>
-      <c r="ZG13" s="3"/>
-      <c r="ZH13" s="3"/>
-      <c r="ZI13" s="3"/>
-      <c r="ZJ13" s="3"/>
-      <c r="ZK13" s="3"/>
-      <c r="ZL13" s="3"/>
-      <c r="ZM13" s="3"/>
-      <c r="ZN13" s="3"/>
-      <c r="ZO13" s="3"/>
-      <c r="ZP13" s="3"/>
-      <c r="ZQ13" s="3"/>
-      <c r="ZR13" s="3"/>
-      <c r="ZS13" s="3"/>
-      <c r="ZT13" s="3"/>
-      <c r="ZU13" s="3"/>
-      <c r="ZV13" s="3"/>
-      <c r="ZW13" s="3"/>
-      <c r="ZX13" s="3"/>
-      <c r="ZY13" s="3"/>
-      <c r="ZZ13" s="3"/>
-      <c r="AAA13" s="3"/>
-      <c r="AAB13" s="3"/>
-      <c r="AAC13" s="3"/>
-      <c r="AAD13" s="3"/>
-      <c r="AAE13" s="3"/>
-      <c r="AAF13" s="3"/>
-      <c r="AAG13" s="3"/>
-      <c r="AAH13" s="3"/>
-      <c r="AAI13" s="3"/>
-      <c r="AAJ13" s="3"/>
-      <c r="AAK13" s="3"/>
-      <c r="AAL13" s="3"/>
-      <c r="AAM13" s="3"/>
-      <c r="AAN13" s="3"/>
-      <c r="AAO13" s="3"/>
-      <c r="AAP13" s="3"/>
-      <c r="AAQ13" s="3"/>
-      <c r="AAR13" s="3"/>
-      <c r="AAS13" s="3"/>
-      <c r="AAT13" s="3"/>
-      <c r="AAU13" s="3"/>
-      <c r="AAV13" s="3"/>
-      <c r="AAW13" s="3"/>
-      <c r="AAX13" s="3"/>
-      <c r="AAY13" s="3"/>
-      <c r="AAZ13" s="3"/>
-      <c r="ABA13" s="3"/>
-      <c r="ABB13" s="3"/>
-      <c r="ABC13" s="3"/>
-      <c r="ABD13" s="3"/>
-      <c r="ABE13" s="3"/>
-      <c r="ABF13" s="3"/>
-      <c r="ABG13" s="3"/>
-      <c r="ABH13" s="3"/>
-      <c r="ABI13" s="3"/>
-      <c r="ABJ13" s="3"/>
-      <c r="ABK13" s="3"/>
-      <c r="ABL13" s="3"/>
-      <c r="ABM13" s="3"/>
-      <c r="ABN13" s="3"/>
-      <c r="ABO13" s="3"/>
-      <c r="ABP13" s="3"/>
-      <c r="ABQ13" s="3"/>
-      <c r="ABR13" s="3"/>
-      <c r="ABS13" s="3"/>
-      <c r="ABT13" s="3"/>
-      <c r="ABU13" s="3"/>
-      <c r="ABV13" s="3"/>
-      <c r="ABW13" s="3"/>
-      <c r="ABX13" s="3"/>
-      <c r="ABY13" s="3"/>
-      <c r="ABZ13" s="3"/>
-      <c r="ACA13" s="3"/>
-      <c r="ACB13" s="3"/>
-      <c r="ACC13" s="3"/>
-      <c r="ACD13" s="3"/>
-      <c r="ACE13" s="3"/>
-      <c r="ACF13" s="3"/>
-      <c r="ACG13" s="3"/>
-      <c r="ACH13" s="3"/>
-      <c r="ACI13" s="3"/>
-      <c r="ACJ13" s="3"/>
-      <c r="ACK13" s="3"/>
-      <c r="ACL13" s="3"/>
-      <c r="ACM13" s="3"/>
-      <c r="ACN13" s="3"/>
-      <c r="ACO13" s="3"/>
-      <c r="ACP13" s="3"/>
-      <c r="ACQ13" s="3"/>
-      <c r="ACR13" s="3"/>
-      <c r="ACS13" s="3"/>
-      <c r="ACT13" s="3"/>
-      <c r="ACU13" s="3"/>
-      <c r="ACV13" s="3"/>
-      <c r="ACW13" s="3"/>
-      <c r="ACX13" s="3"/>
-      <c r="ACY13" s="3"/>
-      <c r="ACZ13" s="3"/>
-      <c r="ADA13" s="3"/>
-      <c r="ADB13" s="3"/>
-      <c r="ADC13" s="3"/>
-      <c r="ADD13" s="3"/>
-      <c r="ADE13" s="3"/>
-      <c r="ADF13" s="3"/>
-      <c r="ADG13" s="3"/>
-      <c r="ADH13" s="3"/>
-      <c r="ADI13" s="3"/>
-      <c r="ADJ13" s="3"/>
-      <c r="ADK13" s="3"/>
-      <c r="ADL13" s="3"/>
-      <c r="ADM13" s="3"/>
-      <c r="ADN13" s="3"/>
-      <c r="ADO13" s="3"/>
-      <c r="ADP13" s="3"/>
-      <c r="ADQ13" s="3"/>
-      <c r="ADR13" s="3"/>
-      <c r="ADS13" s="3"/>
-      <c r="ADT13" s="3"/>
-      <c r="ADU13" s="3"/>
-      <c r="ADV13" s="3"/>
-      <c r="ADW13" s="3"/>
-      <c r="ADX13" s="3"/>
-      <c r="ADY13" s="3"/>
-      <c r="ADZ13" s="3"/>
-      <c r="AEA13" s="3"/>
-      <c r="AEB13" s="3"/>
-      <c r="AEC13" s="3"/>
-      <c r="AED13" s="3"/>
-      <c r="AEE13" s="3"/>
-      <c r="AEF13" s="3"/>
-      <c r="AEG13" s="3"/>
-      <c r="AEH13" s="3"/>
-      <c r="AEI13" s="3"/>
-      <c r="AEJ13" s="3"/>
-      <c r="AEK13" s="3"/>
-      <c r="AEL13" s="3"/>
-      <c r="AEM13" s="3"/>
-      <c r="AEN13" s="3"/>
-      <c r="AEO13" s="3"/>
-      <c r="AEP13" s="3"/>
-      <c r="AEQ13" s="3"/>
-      <c r="AER13" s="3"/>
-      <c r="AES13" s="3"/>
-      <c r="AET13" s="3"/>
-      <c r="AEU13" s="3"/>
-      <c r="AEV13" s="3"/>
-      <c r="AEW13" s="3"/>
-      <c r="AEX13" s="3"/>
-      <c r="AEY13" s="3"/>
-      <c r="AEZ13" s="3"/>
-      <c r="AFA13" s="3"/>
-      <c r="AFB13" s="3"/>
-      <c r="AFC13" s="3"/>
-      <c r="AFD13" s="3"/>
-      <c r="AFE13" s="3"/>
-      <c r="AFF13" s="3"/>
-      <c r="AFG13" s="3"/>
-      <c r="AFH13" s="3"/>
-      <c r="AFI13" s="3"/>
-      <c r="AFJ13" s="3"/>
-      <c r="AFK13" s="3"/>
-      <c r="AFL13" s="3"/>
-      <c r="AFM13" s="3"/>
-      <c r="AFN13" s="3"/>
-      <c r="AFO13" s="3"/>
-      <c r="AFP13" s="3"/>
-      <c r="AFQ13" s="3"/>
-      <c r="AFR13" s="3"/>
-      <c r="AFS13" s="3"/>
-      <c r="AFT13" s="3"/>
-      <c r="AFU13" s="3"/>
-      <c r="AFV13" s="3"/>
-      <c r="AFW13" s="3"/>
-      <c r="AFX13" s="3"/>
-      <c r="AFY13" s="3"/>
-      <c r="AFZ13" s="3"/>
-      <c r="AGA13" s="3"/>
-      <c r="AGB13" s="3"/>
-      <c r="AGC13" s="3"/>
-      <c r="AGD13" s="3"/>
-      <c r="AGE13" s="3"/>
-      <c r="AGF13" s="3"/>
-      <c r="AGG13" s="3"/>
-      <c r="AGH13" s="3"/>
-      <c r="AGI13" s="3"/>
-      <c r="AGJ13" s="3"/>
-      <c r="AGK13" s="3"/>
-      <c r="AGL13" s="3"/>
-      <c r="AGM13" s="3"/>
-      <c r="AGN13" s="3"/>
-      <c r="AGO13" s="3"/>
-      <c r="AGP13" s="3"/>
-      <c r="AGQ13" s="3"/>
-      <c r="AGR13" s="3"/>
-      <c r="AGS13" s="3"/>
-      <c r="AGT13" s="3"/>
-      <c r="AGU13" s="3"/>
-      <c r="AGV13" s="3"/>
-      <c r="AGW13" s="3"/>
-      <c r="AGX13" s="3"/>
-      <c r="AGY13" s="3"/>
-      <c r="AGZ13" s="3"/>
-      <c r="AHA13" s="3"/>
-      <c r="AHB13" s="3"/>
-      <c r="AHC13" s="3"/>
-      <c r="AHD13" s="3"/>
-      <c r="AHE13" s="3"/>
-      <c r="AHF13" s="3"/>
-      <c r="AHG13" s="3"/>
-      <c r="AHH13" s="3"/>
-      <c r="AHI13" s="3"/>
-      <c r="AHJ13" s="3"/>
-      <c r="AHK13" s="3"/>
-      <c r="AHL13" s="3"/>
-      <c r="AHM13" s="3"/>
-      <c r="AHN13" s="3"/>
-      <c r="AHO13" s="3"/>
-      <c r="AHP13" s="3"/>
-      <c r="AHQ13" s="3"/>
-      <c r="AHR13" s="3"/>
-      <c r="AHS13" s="3"/>
-      <c r="AHT13" s="3"/>
-      <c r="AHU13" s="3"/>
-      <c r="AHV13" s="3"/>
-      <c r="AHW13" s="3"/>
-      <c r="AHX13" s="3"/>
-      <c r="AHY13" s="3"/>
-      <c r="AHZ13" s="3"/>
-      <c r="AIA13" s="3"/>
-      <c r="AIB13" s="3"/>
-      <c r="AIC13" s="3"/>
-      <c r="AID13" s="3"/>
-      <c r="AIE13" s="3"/>
-      <c r="AIF13" s="3"/>
-      <c r="AIG13" s="3"/>
-      <c r="AIH13" s="3"/>
-      <c r="AII13" s="3"/>
-      <c r="AIJ13" s="3"/>
-      <c r="AIK13" s="3"/>
-      <c r="AIL13" s="3"/>
-      <c r="AIM13" s="3"/>
-      <c r="AIN13" s="3"/>
-      <c r="AIO13" s="3"/>
-      <c r="AIP13" s="3"/>
-      <c r="AIQ13" s="3"/>
-      <c r="AIR13" s="3"/>
-      <c r="AIS13" s="3"/>
-      <c r="AIT13" s="3"/>
-      <c r="AIU13" s="3"/>
-      <c r="AIV13" s="3"/>
-      <c r="AIW13" s="3"/>
-      <c r="AIX13" s="3"/>
-      <c r="AIY13" s="3"/>
-      <c r="AIZ13" s="3"/>
-      <c r="AJA13" s="3"/>
-      <c r="AJB13" s="3"/>
-      <c r="AJC13" s="3"/>
-      <c r="AJD13" s="3"/>
-      <c r="AJE13" s="3"/>
-      <c r="AJF13" s="3"/>
-      <c r="AJG13" s="3"/>
-      <c r="AJH13" s="3"/>
-      <c r="AJI13" s="3"/>
-      <c r="AJJ13" s="3"/>
-      <c r="AJK13" s="3"/>
-      <c r="AJL13" s="3"/>
-      <c r="AJM13" s="3"/>
-      <c r="AJN13" s="3"/>
-      <c r="AJO13" s="3"/>
-      <c r="AJP13" s="3"/>
-      <c r="AJQ13" s="3"/>
-      <c r="AJR13" s="3"/>
-      <c r="AJS13" s="3"/>
-      <c r="AJT13" s="3"/>
-      <c r="AJU13" s="3"/>
-      <c r="AJV13" s="3"/>
-      <c r="AJW13" s="3"/>
-      <c r="AJX13" s="3"/>
-      <c r="AJY13" s="3"/>
-      <c r="AJZ13" s="3"/>
-      <c r="AKA13" s="3"/>
-      <c r="AKB13" s="3"/>
-      <c r="AKC13" s="3"/>
-      <c r="AKD13" s="3"/>
-      <c r="AKE13" s="3"/>
-      <c r="AKF13" s="3"/>
-      <c r="AKG13" s="3"/>
-      <c r="AKH13" s="3"/>
-      <c r="AKI13" s="3"/>
-      <c r="AKJ13" s="3"/>
-      <c r="AKK13" s="3"/>
-      <c r="AKL13" s="3"/>
-      <c r="AKM13" s="3"/>
-      <c r="AKN13" s="3"/>
-      <c r="AKO13" s="3"/>
-      <c r="AKP13" s="3"/>
-      <c r="AKQ13" s="3"/>
-      <c r="AKR13" s="3"/>
-      <c r="AKS13" s="3"/>
-      <c r="AKT13" s="3"/>
-      <c r="AKU13" s="3"/>
-      <c r="AKV13" s="3"/>
-      <c r="AKW13" s="3"/>
-      <c r="AKX13" s="3"/>
-      <c r="AKY13" s="3"/>
-      <c r="AKZ13" s="3"/>
-      <c r="ALA13" s="3"/>
-      <c r="ALB13" s="3"/>
-      <c r="ALC13" s="3"/>
-      <c r="ALD13" s="3"/>
-      <c r="ALE13" s="3"/>
-      <c r="ALF13" s="3"/>
-      <c r="ALG13" s="3"/>
-      <c r="ALH13" s="3"/>
-      <c r="ALI13" s="3"/>
-      <c r="ALJ13" s="3"/>
-      <c r="ALK13" s="3"/>
-      <c r="ALL13" s="3"/>
-      <c r="ALM13" s="3"/>
-      <c r="ALN13" s="3"/>
-      <c r="ALO13" s="3"/>
-      <c r="ALP13" s="3"/>
-      <c r="ALQ13" s="3"/>
-      <c r="ALR13" s="3"/>
-      <c r="ALS13" s="3"/>
-      <c r="ALT13" s="3"/>
-      <c r="ALU13" s="3"/>
-      <c r="ALV13" s="3"/>
-      <c r="ALW13" s="3"/>
-      <c r="ALX13" s="3"/>
-      <c r="ALY13" s="3"/>
-      <c r="ALZ13" s="3"/>
-      <c r="AMA13" s="3"/>
-      <c r="AMB13" s="3"/>
-      <c r="AMC13" s="3"/>
-      <c r="AMD13" s="3"/>
-      <c r="AME13" s="3"/>
-      <c r="AMF13" s="3"/>
-      <c r="AMG13" s="3"/>
-      <c r="AMH13" s="3"/>
-      <c r="AMI13" s="3"/>
-      <c r="AMJ13" s="4"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>510</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,101 +1897,101 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>510</v>
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D23" s="3" t="n">
+        <v>33</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>82</v>
@@ -3063,19 +2013,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="3" t="n">
-        <v>33</v>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,13 +2053,13 @@
         <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,16 +2067,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,72 +2084,21 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <f aca="false">SUM(A2:A33)</f>
+      <c r="A31" s="1" t="n">
+        <f aca="false">SUM(A2:A30)</f>
         <v>72</v>
       </c>
     </row>
